--- a/testdesignHW.xlsx
+++ b/testdesignHW.xlsx
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="434">
   <si>
     <r>
       <t xml:space="preserve">Security Classification: </t>
@@ -2967,6 +2967,12 @@
   </si>
   <si>
     <t>Click "&gt;" to check if the photo of the next phone displayed in the big frame</t>
+  </si>
+  <si>
+    <t>A18:I19A18:G19A18:I19A18:I18A17:J18A18:N18B19A17:I18A18:M18A18:L18A18:K18A18:J18A18:I18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the display of original price with minus number </t>
   </si>
 </sst>
 </file>
@@ -3962,7 +3968,7 @@
     <xf numFmtId="166" fontId="56" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -4609,6 +4615,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -6402,8 +6417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.3"/>
@@ -6554,15 +6569,15 @@
       </c>
       <c r="B10" s="74">
         <f>SUM(B11:B14)</f>
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C10" s="74">
         <f>SUM(C11:C14)</f>
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D10" s="74">
         <f>SUM(D11:D14)</f>
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="43" customFormat="1">
@@ -6571,15 +6586,15 @@
       </c>
       <c r="B11" s="75">
         <f>COUNTIF($F$18:$F$49636,"*Passed")</f>
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C11" s="75">
         <f>COUNTIF($G$18:$G$49636,"*Passed")</f>
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D11" s="75">
         <f>COUNTIF($H$18:$H$49636,"*Passed")</f>
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:24" s="43" customFormat="1">
@@ -6588,7 +6603,7 @@
       </c>
       <c r="B12" s="75">
         <f>COUNTIF($F$18:$F$49356,"*Failed*")</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C12" s="75">
         <f>COUNTIF($G$18:$G$49356,"*Failed*")</f>
@@ -6708,7 +6723,9 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="67"/>
+      <c r="A18" s="67" t="s">
+        <v>432</v>
+      </c>
       <c r="B18" s="193" t="s">
         <v>419</v>
       </c>
@@ -6815,12 +6832,14 @@
       <c r="H24" s="52"/>
       <c r="I24" s="61"/>
     </row>
-    <row r="25" spans="1:9" s="48" customFormat="1" ht="13.8">
+    <row r="25" spans="1:9" s="48" customFormat="1" ht="24.6">
       <c r="A25" s="58">
         <f t="shared" ref="A25:A34" ca="1" si="0">IF(OFFSET(A25,-1,0) ="",OFFSET(A25,-2,0)+1,OFFSET(A25,-1,0)+1 )</f>
         <v>7</v>
       </c>
-      <c r="B25" s="52"/>
+      <c r="B25" s="52" t="s">
+        <v>433</v>
+      </c>
       <c r="C25" s="52"/>
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
@@ -6968,43 +6987,29 @@
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A35" s="77"/>
-      <c r="B35" s="193" t="s">
+      <c r="B35" s="231" t="s">
         <v>174</v>
       </c>
-      <c r="C35" s="194"/>
-      <c r="D35" s="195"/>
+      <c r="C35" s="232"/>
+      <c r="D35" s="233"/>
       <c r="E35" s="69"/>
       <c r="F35" s="66"/>
       <c r="G35" s="66"/>
       <c r="H35" s="66"/>
       <c r="I35" s="69"/>
     </row>
-    <row r="36" spans="1:9" s="48" customFormat="1" ht="86.1">
+    <row r="36" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A36" s="62">
         <f t="shared" ref="A36:A84" ca="1" si="1">IF(OFFSET(A36,-1,0) ="",OFFSET(A36,-2,0)+1,OFFSET(A36,-1,0)+1 )</f>
         <v>16</v>
       </c>
-      <c r="B36" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="C36" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="D36" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="E36" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="F36" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G36" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H36" s="52" t="s">
-        <v>41</v>
-      </c>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
       <c r="I36" s="62"/>
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
@@ -7020,256 +7025,130 @@
       <c r="H37" s="66"/>
       <c r="I37" s="69"/>
     </row>
-    <row r="38" spans="1:9" s="49" customFormat="1" ht="61.5">
+    <row r="38" spans="1:9" s="49" customFormat="1" ht="13.8">
       <c r="A38" s="63">
         <f t="shared" ca="1" si="1"/>
         <v>17</v>
       </c>
-      <c r="B38" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="C38" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="D38" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="E38" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="F38" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H38" s="52" t="s">
-        <v>41</v>
-      </c>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
       <c r="I38" s="63"/>
     </row>
-    <row r="39" spans="1:9" s="48" customFormat="1" ht="86.1">
+    <row r="39" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A39" s="62">
         <f t="shared" ca="1" si="1"/>
         <v>18</v>
       </c>
-      <c r="B39" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="D39" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="E39" s="54" t="s">
-        <v>185</v>
-      </c>
-      <c r="F39" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H39" s="52" t="s">
-        <v>41</v>
-      </c>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
       <c r="I39" s="62"/>
     </row>
-    <row r="40" spans="1:9" s="48" customFormat="1" ht="73.8">
+    <row r="40" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A40" s="62">
         <f t="shared" ca="1" si="1"/>
         <v>19</v>
       </c>
-      <c r="B40" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>187</v>
-      </c>
-      <c r="D40" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="E40" s="54" t="s">
-        <v>189</v>
-      </c>
-      <c r="F40" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G40" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H40" s="52" t="s">
-        <v>41</v>
-      </c>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
       <c r="I40" s="62"/>
     </row>
-    <row r="41" spans="1:9" s="48" customFormat="1" ht="73.8">
+    <row r="41" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A41" s="62">
         <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
-      <c r="B41" s="52" t="s">
-        <v>190</v>
-      </c>
-      <c r="C41" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="D41" s="54" t="s">
-        <v>192</v>
-      </c>
-      <c r="E41" s="60" t="s">
-        <v>193</v>
-      </c>
-      <c r="F41" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G41" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H41" s="52" t="s">
-        <v>41</v>
-      </c>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
       <c r="I41" s="62"/>
     </row>
-    <row r="42" spans="1:9" s="48" customFormat="1" ht="159.9">
+    <row r="42" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A42" s="62">
         <f t="shared" ca="1" si="1"/>
         <v>21</v>
       </c>
-      <c r="B42" s="52" t="s">
-        <v>194</v>
-      </c>
-      <c r="C42" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="D42" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="E42" s="54" t="s">
-        <v>197</v>
-      </c>
-      <c r="F42" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H42" s="52" t="s">
-        <v>41</v>
-      </c>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
       <c r="I42" s="62"/>
     </row>
-    <row r="43" spans="1:9" s="48" customFormat="1" ht="172.2">
+    <row r="43" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A43" s="62">
         <f t="shared" ca="1" si="1"/>
         <v>22</v>
       </c>
-      <c r="B43" s="52" t="s">
-        <v>198</v>
-      </c>
-      <c r="C43" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="D43" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="E43" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="F43" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G43" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H43" s="52" t="s">
-        <v>41</v>
-      </c>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
       <c r="I43" s="62"/>
     </row>
-    <row r="44" spans="1:9" s="48" customFormat="1" ht="172.2">
+    <row r="44" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A44" s="62">
         <f t="shared" ca="1" si="1"/>
         <v>23</v>
       </c>
-      <c r="B44" s="52" t="s">
-        <v>202</v>
-      </c>
-      <c r="C44" s="52" t="s">
-        <v>203</v>
-      </c>
-      <c r="D44" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="E44" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="F44" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H44" s="52" t="s">
-        <v>41</v>
-      </c>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
       <c r="I44" s="62"/>
     </row>
-    <row r="45" spans="1:9" s="48" customFormat="1" ht="98.4">
+    <row r="45" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A45" s="62">
         <f ca="1">IF(OFFSET(A45,-1,0) ="",OFFSET(A45,-2,0)+1,OFFSET(A45,-1,0)+1 )</f>
         <v>24</v>
       </c>
-      <c r="B45" s="52" t="s">
-        <v>206</v>
-      </c>
-      <c r="C45" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="D45" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="E45" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="F45" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G45" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H45" s="52" t="s">
-        <v>41</v>
-      </c>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
       <c r="I45" s="62"/>
     </row>
-    <row r="46" spans="1:9" s="48" customFormat="1" ht="61.5">
+    <row r="46" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A46" s="62">
         <f t="shared" ca="1" si="1"/>
         <v>25</v>
       </c>
-      <c r="B46" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="C46" s="52" t="s">
-        <v>211</v>
-      </c>
-      <c r="D46" s="60" t="s">
-        <v>212</v>
-      </c>
-      <c r="E46" s="54" t="s">
-        <v>213</v>
-      </c>
-      <c r="F46" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G46" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H46" s="52" t="s">
-        <v>41</v>
-      </c>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
       <c r="I46" s="62"/>
     </row>
     <row r="47" spans="1:9" s="48" customFormat="1" ht="13.8">
@@ -7285,116 +7164,60 @@
       <c r="H47" s="66"/>
       <c r="I47" s="69"/>
     </row>
-    <row r="48" spans="1:9" s="48" customFormat="1" ht="73.8">
+    <row r="48" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A48" s="62">
         <f t="shared" ca="1" si="1"/>
         <v>26</v>
       </c>
-      <c r="B48" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="C48" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="D48" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="E48" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="F48" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G48" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H48" s="52" t="s">
-        <v>41</v>
-      </c>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
       <c r="I48" s="62"/>
     </row>
-    <row r="49" spans="1:9" s="48" customFormat="1" ht="135.30000000000001">
+    <row r="49" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A49" s="62">
         <f t="shared" ca="1" si="1"/>
         <v>27</v>
       </c>
-      <c r="B49" s="52" t="s">
-        <v>218</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>219</v>
-      </c>
-      <c r="D49" s="54" t="s">
-        <v>220</v>
-      </c>
-      <c r="E49" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="F49" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G49" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H49" s="52" t="s">
-        <v>41</v>
-      </c>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
       <c r="I49" s="62"/>
     </row>
-    <row r="50" spans="1:9" s="48" customFormat="1" ht="147.6">
+    <row r="50" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A50" s="62">
         <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
-      <c r="B50" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="C50" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="D50" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="E50" s="54" t="s">
-        <v>224</v>
-      </c>
-      <c r="F50" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G50" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H50" s="52" t="s">
-        <v>41</v>
-      </c>
+      <c r="B50" s="52"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
       <c r="I50" s="62"/>
     </row>
-    <row r="51" spans="1:9" s="48" customFormat="1" ht="86.1">
+    <row r="51" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A51" s="62">
         <f t="shared" ca="1" si="1"/>
         <v>29</v>
       </c>
-      <c r="B51" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="C51" s="52" t="s">
-        <v>226</v>
-      </c>
-      <c r="D51" s="54" t="s">
-        <v>227</v>
-      </c>
-      <c r="E51" s="54" t="s">
-        <v>228</v>
-      </c>
-      <c r="F51" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G51" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H51" s="52" t="s">
-        <v>41</v>
-      </c>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
       <c r="I51" s="62"/>
     </row>
     <row r="52" spans="1:9" s="48" customFormat="1" ht="13.8">
@@ -8232,7 +8055,7 @@
       <c r="I84" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="20">
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B29:D29"/>
@@ -8245,7 +8068,6 @@
     <mergeCell ref="B79:D79"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B35:D35"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B52:D52"/>
@@ -12714,7 +12536,7 @@
       </c>
       <c r="C18" s="104">
         <f>'User Story 1'!D11</f>
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D18" s="104">
         <f>'User Story 1'!D12</f>
@@ -12772,7 +12594,7 @@
       </c>
       <c r="C20" s="104">
         <f>SUM(C18:C19)</f>
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D20" s="104">
         <f t="shared" ref="D20:G20" si="0">SUM(D18:D19)</f>

--- a/testdesignHW.xlsx
+++ b/testdesignHW.xlsx
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="429">
   <si>
     <r>
       <t xml:space="preserve">Security Classification: </t>
@@ -2930,49 +2930,34 @@
     <t>&lt;&lt;Sprint number&gt;&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Display Price in View Product function </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The use of comma in original price to separate group of thousands by adding a number of 3000 (three thousand) </t>
-  </si>
-  <si>
-    <t>The use of comma in original price to separate group of millions   by adding a number of 3000000 (three million)</t>
-  </si>
-  <si>
-    <t>The use of comma in original price to separate group of billions  by adding a number of 3000000000 (three billions)</t>
-  </si>
-  <si>
-    <t>The use of comma in separate group of thousand  and rounded number in discounted price by applyng a discount of 15 % with on the original price of 3000</t>
-  </si>
-  <si>
-    <t>The use of comma in separate group of millions   and rounded number in discounted price by applyng a discount of 15 % with on the original price of 3000000</t>
-  </si>
-  <si>
-    <t>The use of comma in separate group of billions   and rounded number in discounted price by applyng a discount of 15 % with on the original price of 3000000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Display photo in View Product function </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on each photo to check if that phone's photo displayed in a big frame </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click "&lt;" to check if the photo of the previous  phone displayed in the big frame </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click "&gt;" to check if the photo of the first phone appeared in the big frame when displaying the last photo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click "&lt;" to check if the photo of the last phone appeared in the big frame when displaying the first photo </t>
-  </si>
-  <si>
-    <t>Click "&gt;" to check if the photo of the next phone displayed in the big frame</t>
-  </si>
-  <si>
     <t>A18:I19A18:G19A18:I19A18:I18A17:J18A18:N18B19A17:I18A18:M18A18:L18A18:K18A18:J18A18:I18</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify the display of original price with minus number </t>
+    <t>When the original price less than 1000</t>
+  </si>
+  <si>
+    <t>When the original price less than 1,000,000 and more than 1000</t>
+  </si>
+  <si>
+    <t>When the original price less than 1,000,000,000 and more than 1,000,000</t>
+  </si>
+  <si>
+    <t>When the max price is 999,999,999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, Display Discounted Price </t>
+  </si>
+  <si>
+    <t>1. Display Original Price</t>
+  </si>
+  <si>
+    <t>When the discounted price less than 1000</t>
+  </si>
+  <si>
+    <t>When the discounted price less than 1,000,000 and more than 1000</t>
+  </si>
+  <si>
+    <t>When the discounted price less than 1,000,000,000 and more than 1,000,000</t>
   </si>
 </sst>
 </file>
@@ -4424,6 +4409,15 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4502,6 +4496,9 @@
     <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4512,29 +4509,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4547,12 +4541,60 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4562,68 +4604,11 @@
     <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -5385,37 +5370,37 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="171"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="172"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="175"/>
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="173"/>
-      <c r="C5" s="174" t="s">
+      <c r="B5" s="176"/>
+      <c r="C5" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="174"/>
-      <c r="E5" s="174"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A6" s="175" t="s">
+      <c r="A6" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="176"/>
-      <c r="C6" s="169" t="s">
+      <c r="B6" s="179"/>
+      <c r="C6" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
       <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
@@ -5427,14 +5412,14 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" s="147" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A8" s="167" t="s">
+      <c r="A8" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
     </row>
     <row r="9" spans="1:6" s="147" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="148" t="s">
@@ -5517,14 +5502,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="147" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="169" t="s">
+      <c r="A13" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="169"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="169"/>
+      <c r="B13" s="172"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="172"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="18"/>
@@ -5647,36 +5632,36 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="180" t="s">
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="180"/>
+      <c r="K2" s="183"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="B3" s="183" t="s">
+      <c r="B3" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="181" t="s">
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="184" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="180"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="B4" s="153"/>
@@ -5696,65 +5681,65 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="187" t="s">
+      <c r="A7" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="187"/>
-      <c r="C7" s="187"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="190"/>
+      <c r="I7" s="190"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A8" s="187"/>
-      <c r="B8" s="187"/>
-      <c r="C8" s="187"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="187"/>
-      <c r="H8" s="187"/>
-      <c r="I8" s="187"/>
+      <c r="A8" s="190"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="190"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="187" t="s">
+      <c r="A9" s="190" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="187"/>
-      <c r="C9" s="187"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="187"/>
-      <c r="I9" s="187"/>
+      <c r="B9" s="190"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="190"/>
+      <c r="G9" s="190"/>
+      <c r="H9" s="190"/>
+      <c r="I9" s="190"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="187"/>
-      <c r="B10" s="187"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="187"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="187"/>
+      <c r="A10" s="190"/>
+      <c r="B10" s="190"/>
+      <c r="C10" s="190"/>
+      <c r="D10" s="190"/>
+      <c r="E10" s="190"/>
+      <c r="F10" s="190"/>
+      <c r="G10" s="190"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
     </row>
     <row r="11" spans="1:11" ht="13.8">
-      <c r="A11" s="188" t="s">
+      <c r="A11" s="191" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="188"/>
-      <c r="C11" s="188"/>
-      <c r="D11" s="188"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="188"/>
-      <c r="I11" s="188"/>
+      <c r="B11" s="191"/>
+      <c r="C11" s="191"/>
+      <c r="D11" s="191"/>
+      <c r="E11" s="191"/>
+      <c r="F11" s="191"/>
+      <c r="G11" s="191"/>
+      <c r="H11" s="191"/>
+      <c r="I11" s="191"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3"/>
@@ -5776,65 +5761,65 @@
       <c r="A14" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="184" t="s">
+      <c r="B14" s="187" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="185"/>
-      <c r="D14" s="185"/>
-      <c r="E14" s="185"/>
-      <c r="F14" s="185"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="185"/>
-      <c r="J14" s="185"/>
-      <c r="K14" s="186"/>
+      <c r="C14" s="188"/>
+      <c r="D14" s="188"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="188"/>
+      <c r="I14" s="188"/>
+      <c r="J14" s="188"/>
+      <c r="K14" s="189"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="184" t="s">
+      <c r="B15" s="187" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="185"/>
-      <c r="D15" s="185"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="185"/>
-      <c r="J15" s="185"/>
-      <c r="K15" s="186"/>
+      <c r="C15" s="188"/>
+      <c r="D15" s="188"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="188"/>
+      <c r="G15" s="188"/>
+      <c r="H15" s="188"/>
+      <c r="I15" s="188"/>
+      <c r="J15" s="188"/>
+      <c r="K15" s="189"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="134"/>
-      <c r="B16" s="184" t="s">
+      <c r="B16" s="187" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="185"/>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="185"/>
-      <c r="K16" s="186"/>
+      <c r="C16" s="188"/>
+      <c r="D16" s="188"/>
+      <c r="E16" s="188"/>
+      <c r="F16" s="188"/>
+      <c r="G16" s="188"/>
+      <c r="H16" s="188"/>
+      <c r="I16" s="188"/>
+      <c r="J16" s="188"/>
+      <c r="K16" s="189"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="134"/>
-      <c r="B17" s="184" t="s">
+      <c r="B17" s="187" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="185"/>
-      <c r="D17" s="185"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="185"/>
-      <c r="J17" s="185"/>
-      <c r="K17" s="186"/>
+      <c r="C17" s="188"/>
+      <c r="D17" s="188"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="188"/>
+      <c r="J17" s="188"/>
+      <c r="K17" s="189"/>
     </row>
     <row r="19" spans="1:14" ht="22.5">
       <c r="A19" s="4" t="s">
@@ -5845,40 +5830,40 @@
       <c r="A20" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="184" t="s">
+      <c r="B20" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="185"/>
-      <c r="D20" s="185"/>
-      <c r="E20" s="185"/>
-      <c r="F20" s="185"/>
-      <c r="G20" s="186"/>
+      <c r="C20" s="188"/>
+      <c r="D20" s="188"/>
+      <c r="E20" s="188"/>
+      <c r="F20" s="188"/>
+      <c r="G20" s="189"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1">
       <c r="A21" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="184" t="s">
+      <c r="B21" s="187" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="185"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="185"/>
-      <c r="F21" s="185"/>
-      <c r="G21" s="186"/>
+      <c r="C21" s="188"/>
+      <c r="D21" s="188"/>
+      <c r="E21" s="188"/>
+      <c r="F21" s="188"/>
+      <c r="G21" s="189"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="184" t="s">
+      <c r="B22" s="187" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="185"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="185"/>
-      <c r="F22" s="185"/>
-      <c r="G22" s="186"/>
+      <c r="C22" s="188"/>
+      <c r="D22" s="188"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="189"/>
     </row>
     <row r="24" spans="1:14" ht="22.5">
       <c r="A24" s="4" t="s">
@@ -5937,11 +5922,11 @@
       <c r="N27" s="70"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
-      <c r="B29" s="177" t="s">
+      <c r="B29" s="180" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="178"/>
-      <c r="D29" s="179"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="182"/>
     </row>
     <row r="30" spans="1:14" ht="90" customHeight="1">
       <c r="B30" s="5"/>
@@ -6018,14 +6003,14 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="24.9">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
+      <c r="B2" s="192"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="10"/>
@@ -6211,12 +6196,12 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="25.2">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="195" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
       <c r="E2" s="156"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -6377,18 +6362,18 @@
       <c r="F14" s="29"/>
     </row>
     <row r="16" spans="1:11" ht="14.1">
-      <c r="A16" s="190" t="s">
+      <c r="A16" s="193" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="190"/>
+      <c r="B16" s="193"/>
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" ht="13.8">
-      <c r="A17" s="191" t="s">
+      <c r="A17" s="194" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="191"/>
+      <c r="B17" s="194"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="33"/>
@@ -6417,7 +6402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -6432,10 +6417,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="196"/>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
+      <c r="A1" s="204"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -6444,13 +6429,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="205" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="197"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="202"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="200"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -6459,9 +6444,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="202"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="200"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -6472,11 +6457,11 @@
       <c r="A4" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="202" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -6490,11 +6475,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="198" t="s">
+      <c r="B5" s="203" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="202"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -6508,11 +6493,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="198" t="s">
+      <c r="B6" s="203" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -6523,11 +6508,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="199" t="s">
+      <c r="B7" s="202" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
+      <c r="C7" s="202"/>
+      <c r="D7" s="202"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -6539,11 +6524,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="200">
+      <c r="B8" s="206">
         <v>40850</v>
       </c>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
+      <c r="C8" s="206"/>
+      <c r="D8" s="206"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -6569,15 +6554,15 @@
       </c>
       <c r="B10" s="74">
         <f>SUM(B11:B14)</f>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C10" s="74">
         <f>SUM(C11:C14)</f>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D10" s="74">
         <f>SUM(D11:D14)</f>
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="43" customFormat="1">
@@ -6586,15 +6571,15 @@
       </c>
       <c r="B11" s="75">
         <f>COUNTIF($F$18:$F$49636,"*Passed")</f>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C11" s="75">
         <f>COUNTIF($G$18:$G$49636,"*Passed")</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D11" s="75">
         <f>COUNTIF($H$18:$H$49636,"*Passed")</f>
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:24" s="43" customFormat="1">
@@ -6603,11 +6588,11 @@
       </c>
       <c r="B12" s="75">
         <f>COUNTIF($F$18:$F$49356,"*Failed*")</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C12" s="75">
         <f>COUNTIF($G$18:$G$49356,"*Failed*")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" s="75">
         <f>COUNTIF($H$18:$H$49356,"*Failed*")</f>
@@ -6686,11 +6671,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="56"/>
-      <c r="F16" s="201" t="s">
+      <c r="F16" s="196" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="201"/>
-      <c r="H16" s="201"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="196"/>
       <c r="I16" s="57"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -6724,20 +6709,20 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67" t="s">
-        <v>432</v>
-      </c>
-      <c r="B18" s="193" t="s">
         <v>419</v>
       </c>
-      <c r="C18" s="194"/>
-      <c r="D18" s="195"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="67"/>
-    </row>
-    <row r="19" spans="1:9" s="45" customFormat="1" ht="36.9">
+      <c r="B18" s="197" t="s">
+        <v>425</v>
+      </c>
+      <c r="C18" s="198"/>
+      <c r="D18" s="198"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="198"/>
+      <c r="G18" s="198"/>
+      <c r="H18" s="198"/>
+      <c r="I18" s="199"/>
+    </row>
+    <row r="19" spans="1:9" s="45" customFormat="1">
       <c r="A19" s="52">
         <v>1</v>
       </c>
@@ -6752,7 +6737,7 @@
       <c r="H19" s="52"/>
       <c r="I19" s="55"/>
     </row>
-    <row r="20" spans="1:9" s="45" customFormat="1" ht="36.9">
+    <row r="20" spans="1:9" s="45" customFormat="1" ht="24.6">
       <c r="A20" s="58">
         <f ca="1">IF(OFFSET(A20,-1,0) ="",OFFSET(A20,-2,0)+1,OFFSET(A20,-1,0)+1 )</f>
         <v>2</v>
@@ -6768,7 +6753,7 @@
       <c r="H20" s="52"/>
       <c r="I20" s="55"/>
     </row>
-    <row r="21" spans="1:9" s="45" customFormat="1" ht="36.9">
+    <row r="21" spans="1:9" s="45" customFormat="1" ht="24.6">
       <c r="A21" s="58">
         <f ca="1">IF(OFFSET(A21,-1,0) ="",OFFSET(A21,-2,0)+1,OFFSET(A21,-1,0)+1 )</f>
         <v>3</v>
@@ -6784,7 +6769,7 @@
       <c r="H21" s="52"/>
       <c r="I21" s="55"/>
     </row>
-    <row r="22" spans="1:9" s="48" customFormat="1" ht="49.2">
+    <row r="22" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A22" s="58">
         <f ca="1">IF(OFFSET(A22,-1,0) ="",OFFSET(A22,-2,0)+1,OFFSET(A22,-1,0)+1 )</f>
         <v>4</v>
@@ -6800,29 +6785,26 @@
       <c r="H22" s="52"/>
       <c r="I22" s="61"/>
     </row>
-    <row r="23" spans="1:9" s="48" customFormat="1" ht="69.599999999999994" customHeight="1">
-      <c r="A23" s="58">
-        <f ca="1">IF(OFFSET(A23,-1,0) ="",OFFSET(A23,-2,0)+1,OFFSET(A23,-1,0)+1 )</f>
-        <v>5</v>
-      </c>
-      <c r="B23" s="52" t="s">
+    <row r="23" spans="1:9" s="48" customFormat="1" ht="19.8" customHeight="1">
+      <c r="A23" s="77"/>
+      <c r="B23" s="197" t="s">
         <v>424</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="61"/>
+      <c r="C23" s="198"/>
+      <c r="D23" s="198"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="198"/>
+      <c r="G23" s="198"/>
+      <c r="H23" s="198"/>
+      <c r="I23" s="199"/>
     </row>
     <row r="24" spans="1:9" s="48" customFormat="1" ht="60.9" customHeight="1">
       <c r="A24" s="58">
         <f ca="1">IF(OFFSET(A24,-1,0) ="",OFFSET(A24,-2,0)+1,OFFSET(A24,-1,0)+1 )</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C24" s="52"/>
       <c r="D24" s="60"/>
@@ -6833,12 +6815,9 @@
       <c r="I24" s="61"/>
     </row>
     <row r="25" spans="1:9" s="48" customFormat="1" ht="24.6">
-      <c r="A25" s="58">
-        <f t="shared" ref="A25:A34" ca="1" si="0">IF(OFFSET(A25,-1,0) ="",OFFSET(A25,-2,0)+1,OFFSET(A25,-1,0)+1 )</f>
-        <v>7</v>
-      </c>
+      <c r="A25" s="58"/>
       <c r="B25" s="52" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C25" s="52"/>
       <c r="D25" s="54"/>
@@ -6848,28 +6827,24 @@
       <c r="H25" s="52"/>
       <c r="I25" s="61"/>
     </row>
-    <row r="26" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A26" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B26" s="52"/>
+    <row r="26" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A26" s="58"/>
+      <c r="B26" s="52" t="s">
+        <v>428</v>
+      </c>
       <c r="C26" s="52"/>
       <c r="D26" s="54"/>
       <c r="E26" s="54"/>
       <c r="F26" s="52"/>
       <c r="G26" s="52"/>
       <c r="H26" s="52"/>
-      <c r="I26" s="61" t="s">
-        <v>147</v>
-      </c>
+      <c r="I26" s="61"/>
     </row>
     <row r="27" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A27" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B27" s="52"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="52" t="s">
+        <v>423</v>
+      </c>
       <c r="C27" s="52"/>
       <c r="D27" s="54"/>
       <c r="E27" s="54"/>
@@ -6879,10 +6854,7 @@
       <c r="I27" s="61"/>
     </row>
     <row r="28" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A28" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
+      <c r="A28" s="58"/>
       <c r="B28" s="52"/>
       <c r="C28" s="52"/>
       <c r="D28" s="54"/>
@@ -6894,25 +6866,18 @@
     </row>
     <row r="29" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A29" s="77"/>
-      <c r="B29" s="193" t="s">
-        <v>426</v>
-      </c>
-      <c r="C29" s="194"/>
-      <c r="D29" s="195"/>
+      <c r="B29" s="197"/>
+      <c r="C29" s="198"/>
+      <c r="D29" s="199"/>
       <c r="E29" s="69"/>
       <c r="F29" s="66"/>
       <c r="G29" s="66"/>
       <c r="H29" s="66"/>
       <c r="I29" s="69"/>
     </row>
-    <row r="30" spans="1:9" s="48" customFormat="1" ht="24.6">
-      <c r="A30" s="62">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B30" s="52" t="s">
-        <v>427</v>
-      </c>
+    <row r="30" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A30" s="62"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="52"/>
       <c r="D30" s="53"/>
       <c r="E30" s="54"/>
@@ -6922,13 +6887,8 @@
       <c r="I30" s="62"/>
     </row>
     <row r="31" spans="1:9" s="48" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A31" s="62">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B31" s="52" t="s">
-        <v>431</v>
-      </c>
+      <c r="A31" s="62"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="52"/>
       <c r="D31" s="59"/>
       <c r="E31" s="54"/>
@@ -6937,14 +6897,9 @@
       <c r="H31" s="52"/>
       <c r="I31" s="62"/>
     </row>
-    <row r="32" spans="1:9" s="48" customFormat="1" ht="24.6">
-      <c r="A32" s="62">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B32" s="52" t="s">
-        <v>428</v>
-      </c>
+    <row r="32" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A32" s="62"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="52"/>
       <c r="D32" s="53"/>
       <c r="E32" s="54"/>
@@ -6953,14 +6908,9 @@
       <c r="H32" s="52"/>
       <c r="I32" s="62"/>
     </row>
-    <row r="33" spans="1:9" s="48" customFormat="1" ht="36.9">
-      <c r="A33" s="62">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B33" s="52" t="s">
-        <v>429</v>
-      </c>
+    <row r="33" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A33" s="62"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="52"/>
       <c r="D33" s="60"/>
       <c r="E33" s="54"/>
@@ -6969,14 +6919,9 @@
       <c r="H33" s="52"/>
       <c r="I33" s="62"/>
     </row>
-    <row r="34" spans="1:9" s="48" customFormat="1" ht="36.9">
-      <c r="A34" s="62">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B34" s="52" t="s">
-        <v>430</v>
-      </c>
+    <row r="34" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A34" s="62"/>
+      <c r="B34" s="52"/>
       <c r="C34" s="52"/>
       <c r="D34" s="54"/>
       <c r="E34" s="54"/>
@@ -6987,11 +6932,9 @@
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A35" s="77"/>
-      <c r="B35" s="231" t="s">
-        <v>174</v>
-      </c>
-      <c r="C35" s="232"/>
-      <c r="D35" s="233"/>
+      <c r="B35" s="167"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="169"/>
       <c r="E35" s="69"/>
       <c r="F35" s="66"/>
       <c r="G35" s="66"/>
@@ -6999,10 +6942,7 @@
       <c r="I35" s="69"/>
     </row>
     <row r="36" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A36" s="62">
-        <f t="shared" ref="A36:A84" ca="1" si="1">IF(OFFSET(A36,-1,0) ="",OFFSET(A36,-2,0)+1,OFFSET(A36,-1,0)+1 )</f>
-        <v>16</v>
-      </c>
+      <c r="A36" s="62"/>
       <c r="B36" s="52"/>
       <c r="C36" s="52"/>
       <c r="D36" s="53"/>
@@ -7014,11 +6954,9 @@
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A37" s="77"/>
-      <c r="B37" s="193" t="s">
-        <v>178</v>
-      </c>
-      <c r="C37" s="194"/>
-      <c r="D37" s="195"/>
+      <c r="B37" s="197"/>
+      <c r="C37" s="198"/>
+      <c r="D37" s="199"/>
       <c r="E37" s="69"/>
       <c r="F37" s="66"/>
       <c r="G37" s="66"/>
@@ -7026,10 +6964,7 @@
       <c r="I37" s="69"/>
     </row>
     <row r="38" spans="1:9" s="49" customFormat="1" ht="13.8">
-      <c r="A38" s="63">
-        <f t="shared" ca="1" si="1"/>
-        <v>17</v>
-      </c>
+      <c r="A38" s="63"/>
       <c r="B38" s="52"/>
       <c r="C38" s="52"/>
       <c r="D38" s="53"/>
@@ -7040,10 +6975,7 @@
       <c r="I38" s="63"/>
     </row>
     <row r="39" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A39" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
-      </c>
+      <c r="A39" s="62"/>
       <c r="B39" s="52"/>
       <c r="C39" s="52"/>
       <c r="D39" s="54"/>
@@ -7054,10 +6986,7 @@
       <c r="I39" s="62"/>
     </row>
     <row r="40" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A40" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>19</v>
-      </c>
+      <c r="A40" s="62"/>
       <c r="B40" s="52"/>
       <c r="C40" s="52"/>
       <c r="D40" s="54"/>
@@ -7068,10 +6997,7 @@
       <c r="I40" s="62"/>
     </row>
     <row r="41" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A41" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>20</v>
-      </c>
+      <c r="A41" s="62"/>
       <c r="B41" s="52"/>
       <c r="C41" s="52"/>
       <c r="D41" s="54"/>
@@ -7082,10 +7008,7 @@
       <c r="I41" s="62"/>
     </row>
     <row r="42" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A42" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>21</v>
-      </c>
+      <c r="A42" s="62"/>
       <c r="B42" s="52"/>
       <c r="C42" s="52"/>
       <c r="D42" s="54"/>
@@ -7096,10 +7019,7 @@
       <c r="I42" s="62"/>
     </row>
     <row r="43" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A43" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
-      </c>
+      <c r="A43" s="62"/>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>
       <c r="D43" s="54"/>
@@ -7110,10 +7030,7 @@
       <c r="I43" s="62"/>
     </row>
     <row r="44" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A44" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>23</v>
-      </c>
+      <c r="A44" s="62"/>
       <c r="B44" s="52"/>
       <c r="C44" s="52"/>
       <c r="D44" s="54"/>
@@ -7124,10 +7041,7 @@
       <c r="I44" s="62"/>
     </row>
     <row r="45" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A45" s="62">
-        <f ca="1">IF(OFFSET(A45,-1,0) ="",OFFSET(A45,-2,0)+1,OFFSET(A45,-1,0)+1 )</f>
-        <v>24</v>
-      </c>
+      <c r="A45" s="62"/>
       <c r="B45" s="52"/>
       <c r="C45" s="52"/>
       <c r="D45" s="54"/>
@@ -7138,10 +7052,7 @@
       <c r="I45" s="62"/>
     </row>
     <row r="46" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A46" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
+      <c r="A46" s="62"/>
       <c r="B46" s="52"/>
       <c r="C46" s="52"/>
       <c r="D46" s="60"/>
@@ -7153,11 +7064,9 @@
     </row>
     <row r="47" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A47" s="77"/>
-      <c r="B47" s="193" t="s">
-        <v>214</v>
-      </c>
-      <c r="C47" s="194"/>
-      <c r="D47" s="195"/>
+      <c r="B47" s="197"/>
+      <c r="C47" s="198"/>
+      <c r="D47" s="199"/>
       <c r="E47" s="69"/>
       <c r="F47" s="66"/>
       <c r="G47" s="66"/>
@@ -7165,10 +7074,7 @@
       <c r="I47" s="69"/>
     </row>
     <row r="48" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A48" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
-      </c>
+      <c r="A48" s="62"/>
       <c r="B48" s="52"/>
       <c r="C48" s="52"/>
       <c r="D48" s="53"/>
@@ -7179,10 +7085,7 @@
       <c r="I48" s="62"/>
     </row>
     <row r="49" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A49" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>27</v>
-      </c>
+      <c r="A49" s="62"/>
       <c r="B49" s="52"/>
       <c r="C49" s="52"/>
       <c r="D49" s="54"/>
@@ -7193,10 +7096,7 @@
       <c r="I49" s="62"/>
     </row>
     <row r="50" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A50" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>28</v>
-      </c>
+      <c r="A50" s="62"/>
       <c r="B50" s="52"/>
       <c r="C50" s="52"/>
       <c r="D50" s="54"/>
@@ -7207,10 +7107,7 @@
       <c r="I50" s="62"/>
     </row>
     <row r="51" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A51" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>29</v>
-      </c>
+      <c r="A51" s="62"/>
       <c r="B51" s="52"/>
       <c r="C51" s="52"/>
       <c r="D51" s="54"/>
@@ -7222,847 +7119,369 @@
     </row>
     <row r="52" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A52" s="77"/>
-      <c r="B52" s="193" t="s">
-        <v>229</v>
-      </c>
-      <c r="C52" s="194"/>
-      <c r="D52" s="195"/>
+      <c r="B52" s="197"/>
+      <c r="C52" s="198"/>
+      <c r="D52" s="199"/>
       <c r="E52" s="69"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
       <c r="H52" s="66"/>
       <c r="I52" s="69"/>
     </row>
-    <row r="53" spans="1:9" s="48" customFormat="1" ht="49.2">
-      <c r="A53" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B53" s="52" t="s">
-        <v>230</v>
-      </c>
-      <c r="C53" s="52" t="s">
-        <v>231</v>
-      </c>
-      <c r="D53" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="E53" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="F53" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G53" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H53" s="52" t="s">
-        <v>41</v>
-      </c>
+    <row r="53" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A53" s="62"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
       <c r="I53" s="62"/>
     </row>
-    <row r="54" spans="1:9" s="48" customFormat="1" ht="98.4">
-      <c r="A54" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B54" s="52" t="s">
-        <v>233</v>
-      </c>
-      <c r="C54" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="D54" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="E54" s="60" t="s">
-        <v>236</v>
-      </c>
-      <c r="F54" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G54" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H54" s="52" t="s">
-        <v>41</v>
-      </c>
+    <row r="54" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A54" s="62"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
       <c r="I54" s="62"/>
     </row>
-    <row r="55" spans="1:9" s="48" customFormat="1" ht="61.5">
-      <c r="A55" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B55" s="52" t="s">
-        <v>237</v>
-      </c>
-      <c r="C55" s="52" t="s">
-        <v>238</v>
-      </c>
-      <c r="D55" s="60" t="s">
-        <v>239</v>
-      </c>
-      <c r="E55" s="54" t="s">
-        <v>240</v>
-      </c>
-      <c r="F55" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G55" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H55" s="52" t="s">
-        <v>41</v>
-      </c>
+    <row r="55" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A55" s="62"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
       <c r="I55" s="62"/>
     </row>
     <row r="56" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A56" s="77"/>
-      <c r="B56" s="193" t="s">
-        <v>241</v>
-      </c>
-      <c r="C56" s="194"/>
-      <c r="D56" s="195"/>
+      <c r="B56" s="197"/>
+      <c r="C56" s="198"/>
+      <c r="D56" s="199"/>
       <c r="E56" s="69"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
       <c r="H56" s="66"/>
       <c r="I56" s="69"/>
     </row>
-    <row r="57" spans="1:9" s="48" customFormat="1" ht="61.5">
-      <c r="A57" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B57" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="C57" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="D57" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="E57" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="F57" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G57" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H57" s="52" t="s">
-        <v>41</v>
-      </c>
+    <row r="57" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A57" s="62"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
       <c r="I57" s="62"/>
     </row>
-    <row r="58" spans="1:9" s="48" customFormat="1" ht="98.4">
-      <c r="A58" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="B58" s="52" t="s">
-        <v>245</v>
-      </c>
-      <c r="C58" s="52" t="s">
-        <v>246</v>
-      </c>
-      <c r="D58" s="54" t="s">
-        <v>247</v>
-      </c>
-      <c r="E58" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="F58" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G58" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="H58" s="52" t="s">
-        <v>41</v>
-      </c>
+    <row r="58" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A58" s="62"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
       <c r="I58" s="62"/>
     </row>
-    <row r="59" spans="1:9" s="48" customFormat="1" ht="98.4">
-      <c r="A59" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B59" s="52" t="s">
-        <v>249</v>
-      </c>
-      <c r="C59" s="52" t="s">
-        <v>250</v>
-      </c>
-      <c r="D59" s="54" t="s">
-        <v>251</v>
-      </c>
-      <c r="E59" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="F59" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G59" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="H59" s="52" t="s">
-        <v>41</v>
-      </c>
+    <row r="59" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A59" s="62"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
       <c r="I59" s="62"/>
     </row>
-    <row r="60" spans="1:9" s="48" customFormat="1" ht="86.1">
-      <c r="A60" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B60" s="52" t="s">
-        <v>252</v>
-      </c>
-      <c r="C60" s="52" t="s">
-        <v>253</v>
-      </c>
-      <c r="D60" s="54" t="s">
-        <v>254</v>
-      </c>
-      <c r="E60" s="60" t="s">
-        <v>255</v>
-      </c>
-      <c r="F60" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G60" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H60" s="52" t="s">
-        <v>41</v>
-      </c>
+    <row r="60" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A60" s="62"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
       <c r="I60" s="62"/>
     </row>
-    <row r="61" spans="1:9" s="48" customFormat="1" ht="98.4">
-      <c r="A61" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B61" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="C61" s="52" t="s">
-        <v>257</v>
-      </c>
-      <c r="D61" s="54" t="s">
-        <v>258</v>
-      </c>
-      <c r="E61" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="F61" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G61" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H61" s="52" t="s">
-        <v>41</v>
-      </c>
+    <row r="61" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A61" s="62"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
       <c r="I61" s="62"/>
     </row>
-    <row r="62" spans="1:9" s="48" customFormat="1" ht="86.1">
-      <c r="A62" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B62" s="52" t="s">
-        <v>260</v>
-      </c>
-      <c r="C62" s="52" t="s">
-        <v>261</v>
-      </c>
-      <c r="D62" s="54" t="s">
-        <v>262</v>
-      </c>
-      <c r="E62" s="54" t="s">
-        <v>263</v>
-      </c>
-      <c r="F62" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G62" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H62" s="52" t="s">
-        <v>41</v>
-      </c>
+    <row r="62" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A62" s="62"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
       <c r="I62" s="62"/>
     </row>
-    <row r="63" spans="1:9" s="48" customFormat="1" ht="86.1">
-      <c r="A63" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B63" s="52" t="s">
-        <v>264</v>
-      </c>
-      <c r="C63" s="52" t="s">
-        <v>265</v>
-      </c>
-      <c r="D63" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="E63" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="F63" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G63" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H63" s="52" t="s">
-        <v>41</v>
-      </c>
+    <row r="63" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A63" s="62"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
       <c r="I63" s="62"/>
     </row>
-    <row r="64" spans="1:9" s="48" customFormat="1" ht="61.5">
-      <c r="A64" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B64" s="52" t="s">
-        <v>268</v>
-      </c>
-      <c r="C64" s="52" t="s">
-        <v>269</v>
-      </c>
-      <c r="D64" s="60" t="s">
-        <v>270</v>
-      </c>
-      <c r="E64" s="54" t="s">
-        <v>271</v>
-      </c>
-      <c r="F64" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G64" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="H64" s="52" t="s">
-        <v>41</v>
-      </c>
+    <row r="64" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A64" s="62"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
       <c r="I64" s="62"/>
     </row>
-    <row r="65" spans="1:9" s="48" customFormat="1" ht="86.1">
-      <c r="A65" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="B65" s="52" t="s">
-        <v>272</v>
-      </c>
-      <c r="C65" s="52" t="s">
-        <v>273</v>
-      </c>
-      <c r="D65" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="E65" s="54" t="s">
-        <v>275</v>
-      </c>
-      <c r="F65" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G65" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H65" s="52" t="s">
-        <v>41</v>
-      </c>
+    <row r="65" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A65" s="62"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
       <c r="I65" s="62"/>
     </row>
-    <row r="66" spans="1:9" s="48" customFormat="1" ht="110.7">
-      <c r="A66" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="B66" s="52" t="s">
-        <v>276</v>
-      </c>
-      <c r="C66" s="52" t="s">
-        <v>277</v>
-      </c>
-      <c r="D66" s="54" t="s">
-        <v>278</v>
-      </c>
-      <c r="E66" s="60" t="s">
-        <v>279</v>
-      </c>
-      <c r="F66" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G66" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H66" s="52" t="s">
-        <v>41</v>
-      </c>
+    <row r="66" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A66" s="62"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
       <c r="I66" s="62"/>
     </row>
-    <row r="67" spans="1:9" s="48" customFormat="1" ht="110.7">
-      <c r="A67" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="B67" s="52" t="s">
-        <v>280</v>
-      </c>
-      <c r="C67" s="52" t="s">
-        <v>281</v>
-      </c>
-      <c r="D67" s="54" t="s">
-        <v>282</v>
-      </c>
-      <c r="E67" s="60" t="s">
-        <v>279</v>
-      </c>
-      <c r="F67" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G67" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H67" s="52" t="s">
-        <v>41</v>
-      </c>
+    <row r="67" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A67" s="62"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="60"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
       <c r="I67" s="62"/>
     </row>
     <row r="68" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A68" s="77"/>
-      <c r="B68" s="193" t="s">
-        <v>283</v>
-      </c>
-      <c r="C68" s="194"/>
-      <c r="D68" s="195"/>
+      <c r="B68" s="197"/>
+      <c r="C68" s="198"/>
+      <c r="D68" s="199"/>
       <c r="E68" s="69"/>
       <c r="F68" s="66"/>
       <c r="G68" s="66"/>
       <c r="H68" s="66"/>
       <c r="I68" s="69"/>
     </row>
-    <row r="69" spans="1:9" s="48" customFormat="1" ht="49.2">
-      <c r="A69" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="B69" s="52" t="s">
-        <v>284</v>
-      </c>
-      <c r="C69" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D69" s="53" t="s">
-        <v>286</v>
-      </c>
-      <c r="E69" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="F69" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G69" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H69" s="52" t="s">
-        <v>41</v>
-      </c>
+    <row r="69" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A69" s="62"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
       <c r="I69" s="62"/>
     </row>
-    <row r="70" spans="1:9" s="48" customFormat="1" ht="73.8">
-      <c r="A70" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="B70" s="52" t="s">
-        <v>287</v>
-      </c>
-      <c r="C70" s="52" t="s">
-        <v>288</v>
-      </c>
-      <c r="D70" s="60" t="s">
-        <v>289</v>
-      </c>
-      <c r="E70" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="F70" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G70" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H70" s="52" t="s">
-        <v>41</v>
-      </c>
+    <row r="70" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A70" s="62"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="52"/>
       <c r="I70" s="62"/>
     </row>
-    <row r="71" spans="1:9" s="48" customFormat="1" ht="61.5">
-      <c r="A71" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="B71" s="52" t="s">
-        <v>290</v>
-      </c>
-      <c r="C71" s="52" t="s">
-        <v>291</v>
-      </c>
-      <c r="D71" s="60" t="s">
-        <v>292</v>
-      </c>
-      <c r="E71" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="F71" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G71" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H71" s="52" t="s">
-        <v>41</v>
-      </c>
+    <row r="71" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A71" s="62"/>
+      <c r="B71" s="52"/>
+      <c r="C71" s="52"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="52"/>
+      <c r="H71" s="52"/>
       <c r="I71" s="62"/>
     </row>
     <row r="72" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A72" s="77"/>
-      <c r="B72" s="193" t="s">
-        <v>293</v>
-      </c>
-      <c r="C72" s="194"/>
-      <c r="D72" s="195"/>
+      <c r="B72" s="197"/>
+      <c r="C72" s="198"/>
+      <c r="D72" s="199"/>
       <c r="E72" s="69"/>
       <c r="F72" s="66"/>
       <c r="G72" s="66"/>
       <c r="H72" s="66"/>
       <c r="I72" s="69"/>
     </row>
-    <row r="73" spans="1:9" s="48" customFormat="1" ht="110.7">
-      <c r="A73" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="B73" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="C73" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="D73" s="54" t="s">
-        <v>296</v>
-      </c>
-      <c r="E73" s="54" t="s">
-        <v>297</v>
-      </c>
-      <c r="F73" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G73" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H73" s="52" t="s">
-        <v>41</v>
-      </c>
+    <row r="73" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A73" s="62"/>
+      <c r="B73" s="52"/>
+      <c r="C73" s="52"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="52"/>
+      <c r="H73" s="52"/>
       <c r="I73" s="62"/>
     </row>
-    <row r="74" spans="1:9" s="48" customFormat="1" ht="135.30000000000001">
-      <c r="A74" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="B74" s="52" t="s">
-        <v>298</v>
-      </c>
-      <c r="C74" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="D74" s="54" t="s">
-        <v>299</v>
-      </c>
-      <c r="E74" s="54" t="s">
-        <v>300</v>
-      </c>
-      <c r="F74" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G74" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H74" s="52" t="s">
-        <v>41</v>
-      </c>
+    <row r="74" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A74" s="62"/>
+      <c r="B74" s="52"/>
+      <c r="C74" s="52"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="52"/>
       <c r="I74" s="62"/>
     </row>
-    <row r="75" spans="1:9" s="48" customFormat="1" ht="73.8">
-      <c r="A75" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="B75" s="52" t="s">
-        <v>301</v>
-      </c>
-      <c r="C75" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="D75" s="54" t="s">
-        <v>302</v>
-      </c>
-      <c r="E75" s="54" t="s">
-        <v>303</v>
-      </c>
-      <c r="F75" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G75" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H75" s="52" t="s">
-        <v>41</v>
-      </c>
+    <row r="75" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A75" s="62"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="52"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="52"/>
+      <c r="H75" s="52"/>
       <c r="I75" s="62"/>
     </row>
     <row r="76" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A76" s="77"/>
-      <c r="B76" s="193" t="s">
-        <v>304</v>
-      </c>
-      <c r="C76" s="194"/>
-      <c r="D76" s="195"/>
+      <c r="B76" s="197"/>
+      <c r="C76" s="198"/>
+      <c r="D76" s="199"/>
       <c r="E76" s="69"/>
       <c r="F76" s="66"/>
       <c r="G76" s="66"/>
       <c r="H76" s="66"/>
       <c r="I76" s="69"/>
     </row>
-    <row r="77" spans="1:9" s="48" customFormat="1" ht="184.5">
-      <c r="A77" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="B77" s="52" t="s">
-        <v>305</v>
-      </c>
-      <c r="C77" s="52" t="s">
-        <v>306</v>
-      </c>
-      <c r="D77" s="54" t="s">
-        <v>307</v>
-      </c>
-      <c r="E77" s="60" t="s">
-        <v>308</v>
-      </c>
-      <c r="F77" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G77" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H77" s="52" t="s">
-        <v>41</v>
-      </c>
+    <row r="77" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A77" s="62"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="52"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="52"/>
+      <c r="G77" s="52"/>
+      <c r="H77" s="52"/>
       <c r="I77" s="62"/>
     </row>
-    <row r="78" spans="1:9" s="48" customFormat="1" ht="73.8">
-      <c r="A78" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="B78" s="52" t="s">
-        <v>309</v>
-      </c>
-      <c r="C78" s="52" t="s">
-        <v>306</v>
-      </c>
-      <c r="D78" s="60" t="s">
-        <v>310</v>
-      </c>
-      <c r="E78" s="60" t="s">
-        <v>311</v>
-      </c>
-      <c r="F78" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G78" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H78" s="52" t="s">
-        <v>41</v>
-      </c>
+    <row r="78" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A78" s="62"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="60"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="52"/>
+      <c r="H78" s="52"/>
       <c r="I78" s="62"/>
     </row>
     <row r="79" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A79" s="77"/>
-      <c r="B79" s="193" t="s">
-        <v>312</v>
-      </c>
-      <c r="C79" s="194"/>
-      <c r="D79" s="195"/>
+      <c r="B79" s="197"/>
+      <c r="C79" s="198"/>
+      <c r="D79" s="199"/>
       <c r="E79" s="69"/>
       <c r="F79" s="66"/>
       <c r="G79" s="66"/>
       <c r="H79" s="66"/>
       <c r="I79" s="69"/>
     </row>
-    <row r="80" spans="1:9" s="48" customFormat="1" ht="73.8">
-      <c r="A80" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="B80" s="52" t="s">
-        <v>313</v>
-      </c>
-      <c r="C80" s="52" t="s">
-        <v>314</v>
-      </c>
-      <c r="D80" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="E80" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="F80" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G80" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H80" s="52" t="s">
-        <v>41</v>
-      </c>
+    <row r="80" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A80" s="62"/>
+      <c r="B80" s="52"/>
+      <c r="C80" s="52"/>
+      <c r="D80" s="53"/>
+      <c r="E80" s="54"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="52"/>
+      <c r="H80" s="52"/>
       <c r="I80" s="62"/>
     </row>
-    <row r="81" spans="1:9" s="48" customFormat="1" ht="98.4">
-      <c r="A81" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="B81" s="52" t="s">
-        <v>316</v>
-      </c>
-      <c r="C81" s="52" t="s">
-        <v>317</v>
-      </c>
-      <c r="D81" s="60" t="s">
-        <v>318</v>
-      </c>
-      <c r="E81" s="54" t="s">
-        <v>319</v>
-      </c>
-      <c r="F81" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G81" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H81" s="52" t="s">
-        <v>41</v>
-      </c>
+    <row r="81" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A81" s="62"/>
+      <c r="B81" s="52"/>
+      <c r="C81" s="52"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="54"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="52"/>
+      <c r="H81" s="52"/>
       <c r="I81" s="62"/>
     </row>
-    <row r="82" spans="1:9" s="48" customFormat="1" ht="61.5">
-      <c r="A82" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="B82" s="52" t="s">
-        <v>320</v>
-      </c>
-      <c r="C82" s="52" t="s">
-        <v>321</v>
-      </c>
-      <c r="D82" s="60" t="s">
-        <v>322</v>
-      </c>
-      <c r="E82" s="54" t="s">
-        <v>323</v>
-      </c>
-      <c r="F82" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G82" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H82" s="52" t="s">
-        <v>41</v>
-      </c>
+    <row r="82" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A82" s="62"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="52"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="52"/>
+      <c r="H82" s="52"/>
       <c r="I82" s="62"/>
     </row>
-    <row r="83" spans="1:9" s="48" customFormat="1" ht="73.8">
-      <c r="A83" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="B83" s="52" t="s">
-        <v>324</v>
-      </c>
-      <c r="C83" s="52" t="s">
-        <v>325</v>
-      </c>
-      <c r="D83" s="60" t="s">
-        <v>326</v>
-      </c>
-      <c r="E83" s="54" t="s">
-        <v>327</v>
-      </c>
-      <c r="F83" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G83" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H83" s="52" t="s">
-        <v>41</v>
-      </c>
+    <row r="83" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A83" s="62"/>
+      <c r="B83" s="52"/>
+      <c r="C83" s="52"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="52"/>
+      <c r="H83" s="52"/>
       <c r="I83" s="62"/>
     </row>
-    <row r="84" spans="1:9" s="48" customFormat="1" ht="73.8">
-      <c r="A84" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="B84" s="52" t="s">
-        <v>328</v>
-      </c>
-      <c r="C84" s="52" t="s">
-        <v>329</v>
-      </c>
-      <c r="D84" s="60" t="s">
-        <v>330</v>
-      </c>
-      <c r="E84" s="54" t="s">
-        <v>327</v>
-      </c>
-      <c r="F84" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G84" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H84" s="52" t="s">
-        <v>41</v>
-      </c>
+    <row r="84" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A84" s="62"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="54"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="52"/>
+      <c r="H84" s="52"/>
       <c r="I84" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
+  <mergeCells count="21">
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B76:D76"/>
     <mergeCell ref="B79:D79"/>
@@ -8076,15 +7495,22 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:H18"/>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F85:H142">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F19:H84">
+    <dataValidation type="list" allowBlank="1" sqref="F19:H22 F24:H84">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
   </dataValidations>
@@ -8113,10 +7539,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="196"/>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
+      <c r="A1" s="204"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -8125,13 +7551,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="205" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="197"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="202"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="200"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -8140,9 +7566,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="202"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="200"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -8153,11 +7579,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="202" t="s">
         <v>331</v>
       </c>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -8171,11 +7597,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="198" t="s">
+      <c r="B5" s="203" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="202"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -8189,11 +7615,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="198" t="s">
+      <c r="B6" s="203" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -8204,11 +7630,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="199" t="s">
+      <c r="B7" s="202" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
+      <c r="C7" s="202"/>
+      <c r="D7" s="202"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -8220,11 +7646,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="200">
+      <c r="B8" s="206">
         <v>40850</v>
       </c>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
+      <c r="C8" s="206"/>
+      <c r="D8" s="206"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -8367,11 +7793,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="205" t="s">
+      <c r="F16" s="208" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="206"/>
-      <c r="H16" s="207"/>
+      <c r="G16" s="209"/>
+      <c r="H16" s="210"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -8405,11 +7831,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67"/>
-      <c r="B18" s="193" t="s">
+      <c r="B18" s="197" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="194"/>
-      <c r="D18" s="195"/>
+      <c r="C18" s="198"/>
+      <c r="D18" s="199"/>
       <c r="E18" s="67"/>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
@@ -8688,11 +8114,11 @@
     </row>
     <row r="29" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A29" s="77"/>
-      <c r="B29" s="193" t="s">
+      <c r="B29" s="197" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="194"/>
-      <c r="D29" s="195"/>
+      <c r="C29" s="198"/>
+      <c r="D29" s="199"/>
       <c r="E29" s="69"/>
       <c r="F29" s="66"/>
       <c r="G29" s="66"/>
@@ -8841,11 +8267,11 @@
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A35" s="77"/>
-      <c r="B35" s="193" t="s">
+      <c r="B35" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="C35" s="194"/>
-      <c r="D35" s="195"/>
+      <c r="C35" s="198"/>
+      <c r="D35" s="199"/>
       <c r="E35" s="69"/>
       <c r="F35" s="66"/>
       <c r="G35" s="66"/>
@@ -8882,11 +8308,11 @@
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A37" s="77"/>
-      <c r="B37" s="193" t="s">
+      <c r="B37" s="197" t="s">
         <v>178</v>
       </c>
-      <c r="C37" s="194"/>
-      <c r="D37" s="195"/>
+      <c r="C37" s="198"/>
+      <c r="D37" s="199"/>
       <c r="E37" s="69"/>
       <c r="F37" s="66"/>
       <c r="G37" s="66"/>
@@ -9147,11 +8573,11 @@
     </row>
     <row r="47" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A47" s="77"/>
-      <c r="B47" s="193" t="s">
+      <c r="B47" s="197" t="s">
         <v>214</v>
       </c>
-      <c r="C47" s="194"/>
-      <c r="D47" s="195"/>
+      <c r="C47" s="198"/>
+      <c r="D47" s="199"/>
       <c r="E47" s="69"/>
       <c r="F47" s="66"/>
       <c r="G47" s="66"/>
@@ -9272,11 +8698,11 @@
     </row>
     <row r="52" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A52" s="77"/>
-      <c r="B52" s="193" t="s">
+      <c r="B52" s="197" t="s">
         <v>229</v>
       </c>
-      <c r="C52" s="194"/>
-      <c r="D52" s="195"/>
+      <c r="C52" s="198"/>
+      <c r="D52" s="199"/>
       <c r="E52" s="69"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -9369,11 +8795,11 @@
     </row>
     <row r="56" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A56" s="77"/>
-      <c r="B56" s="193" t="s">
+      <c r="B56" s="197" t="s">
         <v>241</v>
       </c>
-      <c r="C56" s="194"/>
-      <c r="D56" s="195"/>
+      <c r="C56" s="198"/>
+      <c r="D56" s="199"/>
       <c r="E56" s="69"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -9690,11 +9116,11 @@
     </row>
     <row r="68" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A68" s="77"/>
-      <c r="B68" s="193" t="s">
+      <c r="B68" s="197" t="s">
         <v>283</v>
       </c>
-      <c r="C68" s="194"/>
-      <c r="D68" s="195"/>
+      <c r="C68" s="198"/>
+      <c r="D68" s="199"/>
       <c r="E68" s="69"/>
       <c r="F68" s="66"/>
       <c r="G68" s="66"/>
@@ -9787,11 +9213,11 @@
     </row>
     <row r="72" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A72" s="77"/>
-      <c r="B72" s="193" t="s">
+      <c r="B72" s="197" t="s">
         <v>293</v>
       </c>
-      <c r="C72" s="194"/>
-      <c r="D72" s="195"/>
+      <c r="C72" s="198"/>
+      <c r="D72" s="199"/>
       <c r="E72" s="69"/>
       <c r="F72" s="66"/>
       <c r="G72" s="66"/>
@@ -9884,11 +9310,11 @@
     </row>
     <row r="76" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A76" s="77"/>
-      <c r="B76" s="193" t="s">
+      <c r="B76" s="197" t="s">
         <v>304</v>
       </c>
-      <c r="C76" s="194"/>
-      <c r="D76" s="195"/>
+      <c r="C76" s="198"/>
+      <c r="D76" s="199"/>
       <c r="E76" s="69"/>
       <c r="F76" s="66"/>
       <c r="G76" s="66"/>
@@ -9953,11 +9379,11 @@
     </row>
     <row r="79" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A79" s="77"/>
-      <c r="B79" s="193" t="s">
+      <c r="B79" s="197" t="s">
         <v>312</v>
       </c>
-      <c r="C79" s="194"/>
-      <c r="D79" s="195"/>
+      <c r="C79" s="198"/>
+      <c r="D79" s="199"/>
       <c r="E79" s="69"/>
       <c r="F79" s="66"/>
       <c r="G79" s="66"/>
@@ -10106,17 +9532,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B76:D76"/>
@@ -10127,6 +9542,17 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F85:H142">
@@ -10149,7 +9575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X84"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C17" sqref="C17:D17"/>
     </sheetView>
   </sheetViews>
@@ -10164,10 +9590,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="196"/>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
+      <c r="A1" s="204"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -10176,13 +9602,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="205" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="197"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="202"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="200"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -10191,9 +9617,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="202"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="200"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -10204,11 +9630,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="202" t="s">
         <v>331</v>
       </c>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -10222,11 +9648,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="198" t="s">
+      <c r="B5" s="203" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="202"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -10240,11 +9666,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="198" t="s">
+      <c r="B6" s="203" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -10255,11 +9681,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="199" t="s">
+      <c r="B7" s="202" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
+      <c r="C7" s="202"/>
+      <c r="D7" s="202"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -10271,11 +9697,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="200">
+      <c r="B8" s="206">
         <v>40850</v>
       </c>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
+      <c r="C8" s="206"/>
+      <c r="D8" s="206"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -10418,11 +9844,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="205" t="s">
+      <c r="F16" s="208" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="206"/>
-      <c r="H16" s="207"/>
+      <c r="G16" s="209"/>
+      <c r="H16" s="210"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -10456,11 +9882,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67"/>
-      <c r="B18" s="193" t="s">
+      <c r="B18" s="197" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="194"/>
-      <c r="D18" s="195"/>
+      <c r="C18" s="198"/>
+      <c r="D18" s="199"/>
       <c r="E18" s="67"/>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
@@ -10741,11 +10167,11 @@
     </row>
     <row r="29" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A29" s="77"/>
-      <c r="B29" s="193" t="s">
+      <c r="B29" s="197" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="194"/>
-      <c r="D29" s="195"/>
+      <c r="C29" s="198"/>
+      <c r="D29" s="199"/>
       <c r="E29" s="69"/>
       <c r="F29" s="66"/>
       <c r="G29" s="66"/>
@@ -10894,11 +10320,11 @@
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A35" s="77"/>
-      <c r="B35" s="193" t="s">
+      <c r="B35" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="C35" s="194"/>
-      <c r="D35" s="195"/>
+      <c r="C35" s="198"/>
+      <c r="D35" s="199"/>
       <c r="E35" s="69"/>
       <c r="F35" s="66"/>
       <c r="G35" s="66"/>
@@ -10935,11 +10361,11 @@
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A37" s="77"/>
-      <c r="B37" s="193" t="s">
+      <c r="B37" s="197" t="s">
         <v>178</v>
       </c>
-      <c r="C37" s="194"/>
-      <c r="D37" s="195"/>
+      <c r="C37" s="198"/>
+      <c r="D37" s="199"/>
       <c r="E37" s="69"/>
       <c r="F37" s="66"/>
       <c r="G37" s="66"/>
@@ -11200,11 +10626,11 @@
     </row>
     <row r="47" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A47" s="77"/>
-      <c r="B47" s="193" t="s">
+      <c r="B47" s="197" t="s">
         <v>214</v>
       </c>
-      <c r="C47" s="194"/>
-      <c r="D47" s="195"/>
+      <c r="C47" s="198"/>
+      <c r="D47" s="199"/>
       <c r="E47" s="69"/>
       <c r="F47" s="66"/>
       <c r="G47" s="66"/>
@@ -11325,11 +10751,11 @@
     </row>
     <row r="52" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A52" s="77"/>
-      <c r="B52" s="193" t="s">
+      <c r="B52" s="197" t="s">
         <v>229</v>
       </c>
-      <c r="C52" s="194"/>
-      <c r="D52" s="195"/>
+      <c r="C52" s="198"/>
+      <c r="D52" s="199"/>
       <c r="E52" s="69"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -11422,11 +10848,11 @@
     </row>
     <row r="56" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A56" s="77"/>
-      <c r="B56" s="193" t="s">
+      <c r="B56" s="197" t="s">
         <v>241</v>
       </c>
-      <c r="C56" s="194"/>
-      <c r="D56" s="195"/>
+      <c r="C56" s="198"/>
+      <c r="D56" s="199"/>
       <c r="E56" s="69"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -11743,11 +11169,11 @@
     </row>
     <row r="68" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A68" s="77"/>
-      <c r="B68" s="193" t="s">
+      <c r="B68" s="197" t="s">
         <v>283</v>
       </c>
-      <c r="C68" s="194"/>
-      <c r="D68" s="195"/>
+      <c r="C68" s="198"/>
+      <c r="D68" s="199"/>
       <c r="E68" s="69"/>
       <c r="F68" s="66"/>
       <c r="G68" s="66"/>
@@ -11840,11 +11266,11 @@
     </row>
     <row r="72" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A72" s="77"/>
-      <c r="B72" s="193" t="s">
+      <c r="B72" s="197" t="s">
         <v>293</v>
       </c>
-      <c r="C72" s="194"/>
-      <c r="D72" s="195"/>
+      <c r="C72" s="198"/>
+      <c r="D72" s="199"/>
       <c r="E72" s="69"/>
       <c r="F72" s="66"/>
       <c r="G72" s="66"/>
@@ -11937,11 +11363,11 @@
     </row>
     <row r="76" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A76" s="77"/>
-      <c r="B76" s="193" t="s">
+      <c r="B76" s="197" t="s">
         <v>304</v>
       </c>
-      <c r="C76" s="194"/>
-      <c r="D76" s="195"/>
+      <c r="C76" s="198"/>
+      <c r="D76" s="199"/>
       <c r="E76" s="69"/>
       <c r="F76" s="66"/>
       <c r="G76" s="66"/>
@@ -12006,11 +11432,11 @@
     </row>
     <row r="79" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A79" s="77"/>
-      <c r="B79" s="193" t="s">
+      <c r="B79" s="197" t="s">
         <v>312</v>
       </c>
-      <c r="C79" s="194"/>
-      <c r="D79" s="195"/>
+      <c r="C79" s="198"/>
+      <c r="D79" s="199"/>
       <c r="E79" s="69"/>
       <c r="F79" s="66"/>
       <c r="G79" s="66"/>
@@ -12159,6 +11585,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B76:D76"/>
@@ -12169,17 +11606,6 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B68:D68"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" sqref="F19:H84">
@@ -12236,13 +11662,13 @@
     </row>
     <row r="2" spans="1:12" s="84" customFormat="1" ht="25.2">
       <c r="A2" s="83"/>
-      <c r="C2" s="210" t="s">
+      <c r="C2" s="229" t="s">
         <v>334</v>
       </c>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
       <c r="H2" s="85" t="s">
         <v>335</v>
       </c>
@@ -12253,15 +11679,15 @@
     </row>
     <row r="3" spans="1:12" s="84" customFormat="1" ht="22.5">
       <c r="A3" s="83"/>
-      <c r="C3" s="211" t="s">
+      <c r="C3" s="230" t="s">
         <v>336</v>
       </c>
-      <c r="D3" s="211"/>
+      <c r="D3" s="230"/>
       <c r="E3" s="157"/>
-      <c r="F3" s="212" t="s">
+      <c r="F3" s="231" t="s">
         <v>337</v>
       </c>
-      <c r="G3" s="212"/>
+      <c r="G3" s="231"/>
       <c r="H3" s="86"/>
       <c r="I3" s="86"/>
       <c r="J3" s="87"/>
@@ -12536,7 +11962,7 @@
       </c>
       <c r="C18" s="104">
         <f>'User Story 1'!D11</f>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D18" s="104">
         <f>'User Story 1'!D12</f>
@@ -12594,7 +12020,7 @@
       </c>
       <c r="C20" s="104">
         <f>SUM(C18:C19)</f>
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D20" s="104">
         <f t="shared" ref="D20:G20" si="0">SUM(D18:D19)</f>
@@ -12688,10 +12114,10 @@
       <c r="F26" s="160" t="s">
         <v>385</v>
       </c>
-      <c r="G26" s="214" t="s">
+      <c r="G26" s="232" t="s">
         <v>114</v>
       </c>
-      <c r="H26" s="215"/>
+      <c r="H26" s="233"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="100">
@@ -12716,8 +12142,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="208"/>
-      <c r="H27" s="209"/>
+      <c r="G27" s="224"/>
+      <c r="H27" s="225"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="100">
@@ -12742,8 +12168,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="208"/>
-      <c r="H28" s="209"/>
+      <c r="G28" s="224"/>
+      <c r="H28" s="225"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="100">
@@ -12768,8 +12194,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="208"/>
-      <c r="H29" s="209"/>
+      <c r="G29" s="224"/>
+      <c r="H29" s="225"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="100">
@@ -12794,8 +12220,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="208"/>
-      <c r="H30" s="209"/>
+      <c r="G30" s="224"/>
+      <c r="H30" s="225"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="100"/>
@@ -12816,8 +12242,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="208"/>
-      <c r="H31" s="209"/>
+      <c r="G31" s="224"/>
+      <c r="H31" s="225"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="106"/>
@@ -12855,10 +12281,10 @@
       <c r="E34" s="160" t="s">
         <v>344</v>
       </c>
-      <c r="F34" s="216" t="s">
+      <c r="F34" s="218" t="s">
         <v>347</v>
       </c>
-      <c r="G34" s="217"/>
+      <c r="G34" s="220"/>
     </row>
     <row r="35" spans="1:12" s="125" customFormat="1" ht="14.1">
       <c r="A35" s="121"/>
@@ -12874,8 +12300,8 @@
       <c r="E35" s="126" t="s">
         <v>352</v>
       </c>
-      <c r="F35" s="219"/>
-      <c r="G35" s="220"/>
+      <c r="F35" s="227"/>
+      <c r="G35" s="228"/>
       <c r="H35" s="124"/>
       <c r="I35" s="124"/>
       <c r="J35" s="124"/>
@@ -12898,8 +12324,8 @@
       <c r="E36" s="104" t="s">
         <v>358</v>
       </c>
-      <c r="F36" s="208"/>
-      <c r="G36" s="209"/>
+      <c r="F36" s="224"/>
+      <c r="G36" s="225"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="100">
@@ -12917,8 +12343,8 @@
       <c r="E37" s="104" t="s">
         <v>358</v>
       </c>
-      <c r="F37" s="208"/>
-      <c r="G37" s="209"/>
+      <c r="F37" s="224"/>
+      <c r="G37" s="225"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="106"/>
@@ -12958,15 +12384,15 @@
       <c r="B41" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="218" t="s">
+      <c r="C41" s="226" t="s">
         <v>401</v>
       </c>
-      <c r="D41" s="218"/>
-      <c r="E41" s="218" t="s">
+      <c r="D41" s="226"/>
+      <c r="E41" s="226" t="s">
         <v>402</v>
       </c>
-      <c r="F41" s="218"/>
-      <c r="G41" s="218"/>
+      <c r="F41" s="226"/>
+      <c r="G41" s="226"/>
       <c r="H41" s="99" t="s">
         <v>403</v>
       </c>
@@ -12978,15 +12404,15 @@
       <c r="B42" s="161" t="s">
         <v>404</v>
       </c>
-      <c r="C42" s="221" t="s">
+      <c r="C42" s="223" t="s">
         <v>405</v>
       </c>
-      <c r="D42" s="221"/>
-      <c r="E42" s="221" t="s">
+      <c r="D42" s="223"/>
+      <c r="E42" s="223" t="s">
         <v>406</v>
       </c>
-      <c r="F42" s="221"/>
-      <c r="G42" s="221"/>
+      <c r="F42" s="223"/>
+      <c r="G42" s="223"/>
       <c r="H42" s="109"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -12996,15 +12422,15 @@
       <c r="B43" s="161" t="s">
         <v>404</v>
       </c>
-      <c r="C43" s="221" t="s">
+      <c r="C43" s="223" t="s">
         <v>405</v>
       </c>
-      <c r="D43" s="221"/>
-      <c r="E43" s="221" t="s">
+      <c r="D43" s="223"/>
+      <c r="E43" s="223" t="s">
         <v>406</v>
       </c>
-      <c r="F43" s="221"/>
-      <c r="G43" s="221"/>
+      <c r="F43" s="223"/>
+      <c r="G43" s="223"/>
       <c r="H43" s="109"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -13014,15 +12440,15 @@
       <c r="B44" s="161" t="s">
         <v>404</v>
       </c>
-      <c r="C44" s="221" t="s">
+      <c r="C44" s="223" t="s">
         <v>405</v>
       </c>
-      <c r="D44" s="221"/>
-      <c r="E44" s="221" t="s">
+      <c r="D44" s="223"/>
+      <c r="E44" s="223" t="s">
         <v>406</v>
       </c>
-      <c r="F44" s="221"/>
-      <c r="G44" s="221"/>
+      <c r="F44" s="223"/>
+      <c r="G44" s="223"/>
       <c r="H44" s="109"/>
     </row>
     <row r="45" spans="1:12">
@@ -13055,25 +12481,25 @@
       <c r="G47" s="98"/>
     </row>
     <row r="48" spans="1:12" s="113" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="224" t="s">
+      <c r="A48" s="214" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="226" t="s">
+      <c r="B48" s="216" t="s">
         <v>409</v>
       </c>
-      <c r="C48" s="216" t="s">
+      <c r="C48" s="218" t="s">
         <v>410</v>
       </c>
-      <c r="D48" s="228"/>
-      <c r="E48" s="228"/>
-      <c r="F48" s="217"/>
-      <c r="G48" s="229" t="s">
+      <c r="D48" s="219"/>
+      <c r="E48" s="219"/>
+      <c r="F48" s="220"/>
+      <c r="G48" s="221" t="s">
         <v>377</v>
       </c>
-      <c r="H48" s="229" t="s">
+      <c r="H48" s="221" t="s">
         <v>409</v>
       </c>
-      <c r="I48" s="222" t="s">
+      <c r="I48" s="211" t="s">
         <v>411</v>
       </c>
       <c r="J48" s="112"/>
@@ -13081,8 +12507,8 @@
       <c r="L48" s="112"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="225"/>
-      <c r="B49" s="227"/>
+      <c r="A49" s="215"/>
+      <c r="B49" s="217"/>
       <c r="C49" s="114" t="s">
         <v>386</v>
       </c>
@@ -13095,13 +12521,13 @@
       <c r="F49" s="115" t="s">
         <v>389</v>
       </c>
-      <c r="G49" s="230"/>
-      <c r="H49" s="230"/>
-      <c r="I49" s="223"/>
+      <c r="G49" s="222"/>
+      <c r="H49" s="222"/>
+      <c r="I49" s="212"/>
     </row>
     <row r="50" spans="1:9" ht="25.2">
-      <c r="A50" s="225"/>
-      <c r="B50" s="227"/>
+      <c r="A50" s="215"/>
+      <c r="B50" s="217"/>
       <c r="C50" s="128" t="s">
         <v>412</v>
       </c>
@@ -13213,26 +12639,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="F35:G35"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -13245,6 +12651,26 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -13282,6 +12708,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DD9373D9A24F64F89F14F461305A106" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edefd2bea9a69e65a3918d4b9d850884">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cabca498-5e2a-459c-ade0-601c6a98c846" xmlns:ns3="044e8ed5-b60c-40cd-b477-04c240ccf9c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cdcf90a8e7cb27405451b504492cec2" ns2:_="" ns3:_="">
     <xsd:import namespace="cabca498-5e2a-459c-ade0-601c6a98c846"/>
@@ -13446,15 +12881,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -13462,6 +12888,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7729ACD-7A20-4344-BFA5-B224A8419F45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13480,26 +12914,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="cabca498-5e2a-459c-ade0-601c6a98c846"/>
-    <ds:schemaRef ds:uri="044e8ed5-b60c-40cd-b477-04c240ccf9c3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="044e8ed5-b60c-40cd-b477-04c240ccf9c3"/>
+    <ds:schemaRef ds:uri="cabca498-5e2a-459c-ade0-601c6a98c846"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
